--- a/Metropolitan Roads/28921/ITP-090-CIV-PSDS-Site Clearing and Grubbing Rev 0.xlsx
+++ b/Metropolitan Roads/28921/ITP-090-CIV-PSDS-Site Clearing and Grubbing Rev 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\04-Progress Street, South Dandenong\01-ITPs\ITP-090-CIV-PSDS-Clearing and Grubbing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\28921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D46AB97-9260-4F34-8FE4-CC8E7F1FDB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00115B09-13C1-4175-9045-B01C3C9B5CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-13065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="495" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -842,6 +842,39 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -881,41 +914,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,7 +1322,7 @@
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
@@ -1348,105 +1348,105 @@
         <v>1</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="53" t="str">
+      <c r="C2" s="38" t="str">
         <f>"ITP-"&amp;C4&amp;"-"&amp;C3</f>
         <v>ITP-090-CIV-PSDS-Site Clearing and Grubbing</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="53">
+      <c r="C5" s="38">
         <v>0</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="61">
+      <c r="C6" s="40">
         <v>44985</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="17" t="s">
         <v>10</v>
       </c>
@@ -1461,12 +1461,12 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
       <c r="J13" s="10" t="s">
         <v>11</v>
       </c>
@@ -1477,12 +1477,12 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="O14" s="1"/>
@@ -1491,15 +1491,15 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="O15" s="1"/>
@@ -1525,43 +1525,43 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="48" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="34" t="s">
         <v>22</v>
       </c>
@@ -1571,10 +1571,10 @@
       <c r="G18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="60"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="48"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
@@ -1582,18 +1582,18 @@
       <c r="A19" s="14">
         <v>1</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:19" s="37" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
@@ -1704,35 +1704,35 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:19" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
@@ -1800,18 +1800,18 @@
       <c r="A27" s="14">
         <v>4</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
     </row>
     <row r="28" spans="1:19" ht="146.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
@@ -1879,18 +1879,18 @@
       <c r="A30" s="14">
         <v>5</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
     </row>
     <row r="31" spans="1:19" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
@@ -2051,18 +2051,18 @@
       <c r="A36" s="14">
         <v>6</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
     </row>
     <row r="37" spans="1:11" ht="180" x14ac:dyDescent="0.2">
       <c r="A37" s="33">
@@ -2097,46 +2097,46 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="40"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="51"/>
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
@@ -2155,13 +2155,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B23:K23"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B36:K36"/>
     <mergeCell ref="B30:K30"/>
@@ -2177,15 +2179,13 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2206,6 +2206,94 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Value>6</Value>
+    </TaxCatchAll>
+    <_dlc_DocId xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">MRPA-90827537-4386</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD07655/_layouts/15/DocIdRedir.aspx?ID=MRPA-90827537-4386</Url>
+      <Description>MRPA-90827537-4386</Description>
+    </_dlc_DocIdUrl>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e735f093-acf6-4c16-80a4-869ab95199d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <g1c6ac37c1754461b3b74df7fd890f40 xmlns="e735f093-acf6-4c16-80a4-869ab95199d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Station Street (Officer)</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">66b6924f-9c7c-465c-b983-771aff38e950</TermId>
+        </TermInfo>
+      </Terms>
+    </g1c6ac37c1754461b3b74df7fd890f40>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C96CAB8B48E1334FAE78A028CF8CD9DB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9cae4ebea80323c881993e9410f83e5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns3="e735f093-acf6-4c16-80a4-869ab95199d6" xmlns:ns4="3be47954-cb7c-45b2-ab7a-53ada5817909" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3078c40966828f0157d3386fa3bf5db1" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
@@ -2466,95 +2554,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Value>6</Value>
-    </TaxCatchAll>
-    <_dlc_DocId xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">MRPA-90827537-4386</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD07655/_layouts/15/DocIdRedir.aspx?ID=MRPA-90827537-4386</Url>
-      <Description>MRPA-90827537-4386</Description>
-    </_dlc_DocIdUrl>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e735f093-acf6-4c16-80a4-869ab95199d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <g1c6ac37c1754461b3b74df7fd890f40 xmlns="e735f093-acf6-4c16-80a4-869ab95199d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Station Street (Officer)</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">66b6924f-9c7c-465c-b983-771aff38e950</TermId>
-        </TermInfo>
-      </Terms>
-    </g1c6ac37c1754461b3b74df7fd890f40>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="9c3a2a23-c90d-4814-8d35-ab8780b3f0b7"/>
+    <ds:schemaRef ds:uri="47bb1aa9-43bb-4562-a2f8-03a598b3b4dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="3be47954-cb7c-45b2-ab7a-53ada5817909"/>
+    <ds:schemaRef ds:uri="e735f093-acf6-4c16-80a4-869ab95199d6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06554068-D75A-4C7E-B9A0-731053E72042}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2572,35 +2603,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="9c3a2a23-c90d-4814-8d35-ab8780b3f0b7"/>
-    <ds:schemaRef ds:uri="47bb1aa9-43bb-4562-a2f8-03a598b3b4dd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="3be47954-cb7c-45b2-ab7a-53ada5817909"/>
-    <ds:schemaRef ds:uri="e735f093-acf6-4c16-80a4-869ab95199d6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>